--- a/Pseudo Code/checkHealthMax.xlsx
+++ b/Pseudo Code/checkHealthMax.xlsx
@@ -77,37 +77,37 @@
     <t>end if</t>
   </si>
   <si>
-    <t>newHealth &lt;= MAX_HEALTH</t>
-  </si>
-  <si>
     <t>health int</t>
   </si>
   <si>
-    <t>then health = newHealth</t>
-  </si>
-  <si>
-    <t>newHealth &gt; MAX_HEALTH</t>
-  </si>
-  <si>
     <t>overByMaxVal</t>
   </si>
   <si>
-    <t>then overByMaxVal = newHealth - maxVal</t>
-  </si>
-  <si>
-    <t>health = newHealth - overByVal</t>
-  </si>
-  <si>
     <t>setPlayerHealth(health int, playerID int)</t>
   </si>
   <si>
-    <t>Print "Player is back to full health"</t>
-  </si>
-  <si>
-    <t>Print "Player is not back to full health can still play in matches"</t>
-  </si>
-  <si>
     <t>END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   newHealth &lt;= MAX_HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   then health = newHealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Print "Player is not back to full health can still play in matches"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   newHealth &gt; MAX_HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   then overByMaxVal = newHealth - maxVal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   health = newHealth - overByVal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Print "Player is back to full health"</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,13 +569,13 @@
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -599,7 +599,7 @@
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -608,13 +608,13 @@
     <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
     <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
@@ -635,27 +635,27 @@
     <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -665,12 +665,12 @@
     </row>
     <row r="34" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
